--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841840_UK_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841840_UK_all.xlsx
@@ -25,10 +25,10 @@
     <t>DEU_GBR_841840</t>
   </si>
   <si>
-    <t>HUN_GBR_841840</t>
+    <t>NLD_GBR_841840</t>
   </si>
   <si>
-    <t>NLD_GBR_841840</t>
+    <t>HUN_GBR_841840</t>
   </si>
   <si>
     <t>Date</t>
@@ -573,10 +573,10 @@
         <v>1421</v>
       </c>
       <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>359</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
       </c>
       <c r="F2">
         <v>200403</v>
@@ -590,10 +590,10 @@
         <v>1709</v>
       </c>
       <c r="D3">
+        <v>104</v>
+      </c>
+      <c r="E3">
         <v>335</v>
-      </c>
-      <c r="E3">
-        <v>104</v>
       </c>
       <c r="F3">
         <v>200404</v>
@@ -619,10 +619,10 @@
         <v>1205</v>
       </c>
       <c r="D4">
+        <v>71</v>
+      </c>
+      <c r="E4">
         <v>263</v>
-      </c>
-      <c r="E4">
-        <v>71</v>
       </c>
       <c r="F4">
         <v>200405</v>
@@ -660,10 +660,10 @@
         <v>1358</v>
       </c>
       <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="E5">
         <v>420</v>
-      </c>
-      <c r="E5">
-        <v>104</v>
       </c>
       <c r="F5">
         <v>200406</v>
@@ -713,10 +713,10 @@
         <v>1320</v>
       </c>
       <c r="D6">
+        <v>162</v>
+      </c>
+      <c r="E6">
         <v>515</v>
-      </c>
-      <c r="E6">
-        <v>162</v>
       </c>
       <c r="F6">
         <v>200407</v>
@@ -766,10 +766,10 @@
         <v>1232</v>
       </c>
       <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
         <v>454</v>
-      </c>
-      <c r="E7">
-        <v>53</v>
       </c>
       <c r="F7">
         <v>200408</v>
@@ -819,10 +819,10 @@
         <v>1983</v>
       </c>
       <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
         <v>469</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
       </c>
       <c r="F8">
         <v>200409</v>
@@ -884,10 +884,10 @@
         <v>1234</v>
       </c>
       <c r="D9">
+        <v>202</v>
+      </c>
+      <c r="E9">
         <v>385</v>
-      </c>
-      <c r="E9">
-        <v>202</v>
       </c>
       <c r="F9">
         <v>200410</v>
@@ -949,10 +949,10 @@
         <v>1285</v>
       </c>
       <c r="D10">
+        <v>83</v>
+      </c>
+      <c r="E10">
         <v>608</v>
-      </c>
-      <c r="E10">
-        <v>83</v>
       </c>
       <c r="F10">
         <v>200411</v>
@@ -1014,10 +1014,10 @@
         <v>1384</v>
       </c>
       <c r="D11">
+        <v>116</v>
+      </c>
+      <c r="E11">
         <v>567</v>
-      </c>
-      <c r="E11">
-        <v>116</v>
       </c>
       <c r="F11">
         <v>200412</v>
@@ -1082,10 +1082,10 @@
         <v>1229</v>
       </c>
       <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
         <v>369</v>
-      </c>
-      <c r="E12">
-        <v>45</v>
       </c>
       <c r="F12">
         <v>200501</v>
@@ -1150,10 +1150,10 @@
         <v>1757</v>
       </c>
       <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>539</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
       </c>
       <c r="F13">
         <v>200502</v>
@@ -1221,10 +1221,10 @@
         <v>1291</v>
       </c>
       <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>695</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
       </c>
       <c r="F14">
         <v>200503</v>
@@ -1307,10 +1307,10 @@
         <v>1184</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>207</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
       </c>
       <c r="F15">
         <v>200504</v>
@@ -1396,10 +1396,10 @@
         <v>1433</v>
       </c>
       <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
         <v>581</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
       </c>
       <c r="F16">
         <v>200505</v>
@@ -1485,10 +1485,10 @@
         <v>1790</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>472</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
       </c>
       <c r="F17">
         <v>200506</v>
@@ -1574,10 +1574,10 @@
         <v>1996</v>
       </c>
       <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>575</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
       </c>
       <c r="F18">
         <v>200507</v>
@@ -1666,10 +1666,10 @@
         <v>978</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>533</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
       </c>
       <c r="F19">
         <v>200508</v>
@@ -1757,7 +1757,7 @@
       <c r="C20">
         <v>1732</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>309</v>
       </c>
       <c r="F20">
@@ -1846,7 +1846,7 @@
       <c r="C21">
         <v>1480</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>268</v>
       </c>
       <c r="F21">
@@ -1932,7 +1932,7 @@
       <c r="C22">
         <v>1803</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>464</v>
       </c>
       <c r="F22">
@@ -2016,10 +2016,10 @@
         <v>1824</v>
       </c>
       <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>266</v>
-      </c>
-      <c r="E23">
-        <v>8</v>
       </c>
       <c r="F23">
         <v>200512</v>
@@ -2099,10 +2099,10 @@
         <v>1208</v>
       </c>
       <c r="D24">
+        <v>177</v>
+      </c>
+      <c r="E24">
         <v>426</v>
-      </c>
-      <c r="E24">
-        <v>177</v>
       </c>
       <c r="F24">
         <v>200601</v>
@@ -2188,10 +2188,10 @@
         <v>1515</v>
       </c>
       <c r="D25">
+        <v>307</v>
+      </c>
+      <c r="E25">
         <v>274</v>
-      </c>
-      <c r="E25">
-        <v>307</v>
       </c>
       <c r="F25">
         <v>200602</v>
@@ -2280,10 +2280,10 @@
         <v>1973</v>
       </c>
       <c r="D26">
+        <v>366</v>
+      </c>
+      <c r="E26">
         <v>265</v>
-      </c>
-      <c r="E26">
-        <v>366</v>
       </c>
       <c r="F26">
         <v>200603</v>
@@ -2372,10 +2372,10 @@
         <v>1681</v>
       </c>
       <c r="D27">
+        <v>98</v>
+      </c>
+      <c r="E27">
         <v>262</v>
-      </c>
-      <c r="E27">
-        <v>98</v>
       </c>
       <c r="F27">
         <v>200604</v>
@@ -2464,10 +2464,10 @@
         <v>2093</v>
       </c>
       <c r="D28">
+        <v>186</v>
+      </c>
+      <c r="E28">
         <v>610</v>
-      </c>
-      <c r="E28">
-        <v>186</v>
       </c>
       <c r="F28">
         <v>200605</v>
@@ -2556,10 +2556,10 @@
         <v>1752</v>
       </c>
       <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
         <v>639</v>
-      </c>
-      <c r="E29">
-        <v>25</v>
       </c>
       <c r="F29">
         <v>200606</v>
@@ -2651,10 +2651,10 @@
         <v>1658</v>
       </c>
       <c r="D30">
+        <v>186</v>
+      </c>
+      <c r="E30">
         <v>828</v>
-      </c>
-      <c r="E30">
-        <v>186</v>
       </c>
       <c r="F30">
         <v>200607</v>
@@ -2746,10 +2746,10 @@
         <v>2130</v>
       </c>
       <c r="D31">
+        <v>216</v>
+      </c>
+      <c r="E31">
         <v>500</v>
-      </c>
-      <c r="E31">
-        <v>216</v>
       </c>
       <c r="F31">
         <v>200608</v>
@@ -2841,10 +2841,10 @@
         <v>2145</v>
       </c>
       <c r="D32">
+        <v>95</v>
+      </c>
+      <c r="E32">
         <v>310</v>
-      </c>
-      <c r="E32">
-        <v>95</v>
       </c>
       <c r="F32">
         <v>200609</v>
@@ -2933,10 +2933,10 @@
         <v>1776</v>
       </c>
       <c r="D33">
+        <v>111</v>
+      </c>
+      <c r="E33">
         <v>280</v>
-      </c>
-      <c r="E33">
-        <v>111</v>
       </c>
       <c r="F33">
         <v>200610</v>
@@ -3025,10 +3025,10 @@
         <v>1719</v>
       </c>
       <c r="D34">
+        <v>197</v>
+      </c>
+      <c r="E34">
         <v>591</v>
-      </c>
-      <c r="E34">
-        <v>197</v>
       </c>
       <c r="F34">
         <v>200611</v>
@@ -3117,10 +3117,10 @@
         <v>1415</v>
       </c>
       <c r="D35">
+        <v>188</v>
+      </c>
+      <c r="E35">
         <v>319</v>
-      </c>
-      <c r="E35">
-        <v>188</v>
       </c>
       <c r="F35">
         <v>200612</v>
@@ -3212,10 +3212,10 @@
         <v>1695</v>
       </c>
       <c r="D36">
+        <v>257</v>
+      </c>
+      <c r="E36">
         <v>590</v>
-      </c>
-      <c r="E36">
-        <v>257</v>
       </c>
       <c r="F36">
         <v>200701</v>
@@ -3307,10 +3307,10 @@
         <v>2197</v>
       </c>
       <c r="D37">
+        <v>212</v>
+      </c>
+      <c r="E37">
         <v>507</v>
-      </c>
-      <c r="E37">
-        <v>212</v>
       </c>
       <c r="F37">
         <v>200702</v>
@@ -3402,10 +3402,10 @@
         <v>1317</v>
       </c>
       <c r="D38">
+        <v>367</v>
+      </c>
+      <c r="E38">
         <v>376</v>
-      </c>
-      <c r="E38">
-        <v>367</v>
       </c>
       <c r="F38">
         <v>200703</v>
@@ -3497,10 +3497,10 @@
         <v>1629</v>
       </c>
       <c r="D39">
+        <v>186</v>
+      </c>
+      <c r="E39">
         <v>356</v>
-      </c>
-      <c r="E39">
-        <v>186</v>
       </c>
       <c r="F39">
         <v>200704</v>
@@ -3592,10 +3592,10 @@
         <v>1957</v>
       </c>
       <c r="D40">
+        <v>304</v>
+      </c>
+      <c r="E40">
         <v>483</v>
-      </c>
-      <c r="E40">
-        <v>304</v>
       </c>
       <c r="F40">
         <v>200705</v>
@@ -3687,10 +3687,10 @@
         <v>1885</v>
       </c>
       <c r="D41">
+        <v>430</v>
+      </c>
+      <c r="E41">
         <v>814</v>
-      </c>
-      <c r="E41">
-        <v>430</v>
       </c>
       <c r="F41">
         <v>200706</v>
@@ -3782,10 +3782,10 @@
         <v>1440</v>
       </c>
       <c r="D42">
+        <v>446</v>
+      </c>
+      <c r="E42">
         <v>470</v>
-      </c>
-      <c r="E42">
-        <v>446</v>
       </c>
       <c r="F42">
         <v>200707</v>
@@ -3877,10 +3877,10 @@
         <v>1114</v>
       </c>
       <c r="D43">
+        <v>181</v>
+      </c>
+      <c r="E43">
         <v>517</v>
-      </c>
-      <c r="E43">
-        <v>181</v>
       </c>
       <c r="F43">
         <v>200708</v>
@@ -3972,10 +3972,10 @@
         <v>1382</v>
       </c>
       <c r="D44">
+        <v>189</v>
+      </c>
+      <c r="E44">
         <v>720</v>
-      </c>
-      <c r="E44">
-        <v>189</v>
       </c>
       <c r="F44">
         <v>200709</v>
@@ -4067,10 +4067,10 @@
         <v>1573</v>
       </c>
       <c r="D45">
+        <v>249</v>
+      </c>
+      <c r="E45">
         <v>680</v>
-      </c>
-      <c r="E45">
-        <v>249</v>
       </c>
       <c r="F45">
         <v>200710</v>
@@ -4162,10 +4162,10 @@
         <v>1681</v>
       </c>
       <c r="D46">
+        <v>198</v>
+      </c>
+      <c r="E46">
         <v>615</v>
-      </c>
-      <c r="E46">
-        <v>198</v>
       </c>
       <c r="F46">
         <v>200711</v>
@@ -4257,10 +4257,10 @@
         <v>1097</v>
       </c>
       <c r="D47">
+        <v>184</v>
+      </c>
+      <c r="E47">
         <v>400</v>
-      </c>
-      <c r="E47">
-        <v>184</v>
       </c>
       <c r="F47">
         <v>200712</v>
@@ -4352,10 +4352,10 @@
         <v>1507</v>
       </c>
       <c r="D48">
+        <v>162</v>
+      </c>
+      <c r="E48">
         <v>593</v>
-      </c>
-      <c r="E48">
-        <v>162</v>
       </c>
       <c r="F48">
         <v>200801</v>
@@ -4447,10 +4447,10 @@
         <v>1634</v>
       </c>
       <c r="D49">
+        <v>353</v>
+      </c>
+      <c r="E49">
         <v>443</v>
-      </c>
-      <c r="E49">
-        <v>353</v>
       </c>
       <c r="F49">
         <v>200802</v>
@@ -4542,10 +4542,10 @@
         <v>1499</v>
       </c>
       <c r="D50">
+        <v>317</v>
+      </c>
+      <c r="E50">
         <v>636</v>
-      </c>
-      <c r="E50">
-        <v>317</v>
       </c>
       <c r="F50">
         <v>200803</v>
@@ -4637,10 +4637,10 @@
         <v>2461</v>
       </c>
       <c r="D51">
+        <v>181</v>
+      </c>
+      <c r="E51">
         <v>364</v>
-      </c>
-      <c r="E51">
-        <v>181</v>
       </c>
       <c r="F51">
         <v>200804</v>
@@ -4732,10 +4732,10 @@
         <v>1814</v>
       </c>
       <c r="D52">
+        <v>352</v>
+      </c>
+      <c r="E52">
         <v>584</v>
-      </c>
-      <c r="E52">
-        <v>352</v>
       </c>
       <c r="F52">
         <v>200805</v>
@@ -4827,10 +4827,10 @@
         <v>2567</v>
       </c>
       <c r="D53">
+        <v>239</v>
+      </c>
+      <c r="E53">
         <v>545</v>
-      </c>
-      <c r="E53">
-        <v>239</v>
       </c>
       <c r="F53">
         <v>200806</v>
@@ -4922,10 +4922,10 @@
         <v>2523</v>
       </c>
       <c r="D54">
+        <v>1047</v>
+      </c>
+      <c r="E54">
         <v>476</v>
-      </c>
-      <c r="E54">
-        <v>1047</v>
       </c>
       <c r="F54">
         <v>200807</v>
@@ -5017,10 +5017,10 @@
         <v>1402</v>
       </c>
       <c r="D55">
+        <v>107</v>
+      </c>
+      <c r="E55">
         <v>561</v>
-      </c>
-      <c r="E55">
-        <v>107</v>
       </c>
       <c r="F55">
         <v>200808</v>
@@ -5112,10 +5112,10 @@
         <v>1698</v>
       </c>
       <c r="D56">
+        <v>306</v>
+      </c>
+      <c r="E56">
         <v>536</v>
-      </c>
-      <c r="E56">
-        <v>306</v>
       </c>
       <c r="F56">
         <v>200809</v>
@@ -5207,10 +5207,10 @@
         <v>1745</v>
       </c>
       <c r="D57">
+        <v>166</v>
+      </c>
+      <c r="E57">
         <v>456</v>
-      </c>
-      <c r="E57">
-        <v>166</v>
       </c>
       <c r="F57">
         <v>200810</v>
@@ -5302,10 +5302,10 @@
         <v>784</v>
       </c>
       <c r="D58">
+        <v>240</v>
+      </c>
+      <c r="E58">
         <v>373</v>
-      </c>
-      <c r="E58">
-        <v>240</v>
       </c>
       <c r="F58">
         <v>200811</v>
@@ -5397,10 +5397,10 @@
         <v>1034</v>
       </c>
       <c r="D59">
+        <v>78</v>
+      </c>
+      <c r="E59">
         <v>397</v>
-      </c>
-      <c r="E59">
-        <v>78</v>
       </c>
       <c r="F59">
         <v>200812</v>
@@ -5492,10 +5492,10 @@
         <v>1052</v>
       </c>
       <c r="D60">
+        <v>199</v>
+      </c>
+      <c r="E60">
         <v>278</v>
-      </c>
-      <c r="E60">
-        <v>199</v>
       </c>
       <c r="F60">
         <v>200901</v>
@@ -5587,10 +5587,10 @@
         <v>1011</v>
       </c>
       <c r="D61">
+        <v>210</v>
+      </c>
+      <c r="E61">
         <v>188</v>
-      </c>
-      <c r="E61">
-        <v>210</v>
       </c>
       <c r="F61">
         <v>200902</v>
@@ -5682,10 +5682,10 @@
         <v>1384</v>
       </c>
       <c r="D62">
+        <v>209</v>
+      </c>
+      <c r="E62">
         <v>160</v>
-      </c>
-      <c r="E62">
-        <v>209</v>
       </c>
       <c r="F62">
         <v>200903</v>
@@ -5777,10 +5777,10 @@
         <v>1468</v>
       </c>
       <c r="D63">
+        <v>133</v>
+      </c>
+      <c r="E63">
         <v>343</v>
-      </c>
-      <c r="E63">
-        <v>133</v>
       </c>
       <c r="F63">
         <v>200904</v>
@@ -5872,10 +5872,10 @@
         <v>1313</v>
       </c>
       <c r="D64">
+        <v>113</v>
+      </c>
+      <c r="E64">
         <v>187</v>
-      </c>
-      <c r="E64">
-        <v>113</v>
       </c>
       <c r="F64">
         <v>200905</v>
@@ -5967,10 +5967,10 @@
         <v>1313</v>
       </c>
       <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
         <v>600</v>
-      </c>
-      <c r="E65">
-        <v>5</v>
       </c>
       <c r="F65">
         <v>200906</v>
@@ -6062,10 +6062,10 @@
         <v>2054</v>
       </c>
       <c r="D66">
+        <v>163</v>
+      </c>
+      <c r="E66">
         <v>836</v>
-      </c>
-      <c r="E66">
-        <v>163</v>
       </c>
       <c r="F66">
         <v>200907</v>
@@ -6157,10 +6157,10 @@
         <v>1094</v>
       </c>
       <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
         <v>655</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
       </c>
       <c r="F67">
         <v>200908</v>
@@ -6252,10 +6252,10 @@
         <v>1911</v>
       </c>
       <c r="D68">
+        <v>222</v>
+      </c>
+      <c r="E68">
         <v>563</v>
-      </c>
-      <c r="E68">
-        <v>222</v>
       </c>
       <c r="F68">
         <v>200909</v>
@@ -6347,10 +6347,10 @@
         <v>1935</v>
       </c>
       <c r="D69">
+        <v>117</v>
+      </c>
+      <c r="E69">
         <v>582</v>
-      </c>
-      <c r="E69">
-        <v>117</v>
       </c>
       <c r="F69">
         <v>200910</v>
@@ -6442,10 +6442,10 @@
         <v>1631</v>
       </c>
       <c r="D70">
+        <v>145</v>
+      </c>
+      <c r="E70">
         <v>549</v>
-      </c>
-      <c r="E70">
-        <v>145</v>
       </c>
       <c r="F70">
         <v>200911</v>
@@ -6537,10 +6537,10 @@
         <v>1418</v>
       </c>
       <c r="D71">
+        <v>278</v>
+      </c>
+      <c r="E71">
         <v>375</v>
-      </c>
-      <c r="E71">
-        <v>278</v>
       </c>
       <c r="F71">
         <v>200912</v>
@@ -6632,10 +6632,10 @@
         <v>972</v>
       </c>
       <c r="D72">
+        <v>253</v>
+      </c>
+      <c r="E72">
         <v>494</v>
-      </c>
-      <c r="E72">
-        <v>253</v>
       </c>
       <c r="F72">
         <v>201001</v>
@@ -6727,10 +6727,10 @@
         <v>1158</v>
       </c>
       <c r="D73">
+        <v>307</v>
+      </c>
+      <c r="E73">
         <v>309</v>
-      </c>
-      <c r="E73">
-        <v>307</v>
       </c>
       <c r="F73">
         <v>201002</v>
@@ -6822,10 +6822,10 @@
         <v>1398</v>
       </c>
       <c r="D74">
+        <v>535</v>
+      </c>
+      <c r="E74">
         <v>491</v>
-      </c>
-      <c r="E74">
-        <v>535</v>
       </c>
       <c r="F74">
         <v>201003</v>
@@ -6917,10 +6917,10 @@
         <v>1253</v>
       </c>
       <c r="D75">
+        <v>227</v>
+      </c>
+      <c r="E75">
         <v>325</v>
-      </c>
-      <c r="E75">
-        <v>227</v>
       </c>
       <c r="F75">
         <v>201004</v>
@@ -7012,10 +7012,10 @@
         <v>953</v>
       </c>
       <c r="D76">
+        <v>179</v>
+      </c>
+      <c r="E76">
         <v>303</v>
-      </c>
-      <c r="E76">
-        <v>179</v>
       </c>
       <c r="F76">
         <v>201005</v>
@@ -7107,10 +7107,10 @@
         <v>1027</v>
       </c>
       <c r="D77">
+        <v>196</v>
+      </c>
+      <c r="E77">
         <v>230</v>
-      </c>
-      <c r="E77">
-        <v>196</v>
       </c>
       <c r="F77">
         <v>201006</v>
@@ -7202,10 +7202,10 @@
         <v>1312</v>
       </c>
       <c r="D78">
+        <v>345</v>
+      </c>
+      <c r="E78">
         <v>327</v>
-      </c>
-      <c r="E78">
-        <v>345</v>
       </c>
       <c r="F78">
         <v>201007</v>
@@ -7297,10 +7297,10 @@
         <v>979</v>
       </c>
       <c r="D79">
+        <v>237</v>
+      </c>
+      <c r="E79">
         <v>296</v>
-      </c>
-      <c r="E79">
-        <v>237</v>
       </c>
       <c r="F79">
         <v>201008</v>
@@ -7392,10 +7392,10 @@
         <v>1277</v>
       </c>
       <c r="D80">
+        <v>398</v>
+      </c>
+      <c r="E80">
         <v>372</v>
-      </c>
-      <c r="E80">
-        <v>398</v>
       </c>
       <c r="F80">
         <v>201009</v>
@@ -7487,10 +7487,10 @@
         <v>1500</v>
       </c>
       <c r="D81">
+        <v>304</v>
+      </c>
+      <c r="E81">
         <v>459</v>
-      </c>
-      <c r="E81">
-        <v>304</v>
       </c>
       <c r="F81">
         <v>201010</v>
@@ -7582,10 +7582,10 @@
         <v>1698</v>
       </c>
       <c r="D82">
+        <v>423</v>
+      </c>
+      <c r="E82">
         <v>359</v>
-      </c>
-      <c r="E82">
-        <v>423</v>
       </c>
       <c r="F82">
         <v>201011</v>
@@ -7677,10 +7677,10 @@
         <v>1054</v>
       </c>
       <c r="D83">
+        <v>29</v>
+      </c>
+      <c r="E83">
         <v>469</v>
-      </c>
-      <c r="E83">
-        <v>29</v>
       </c>
       <c r="F83">
         <v>201012</v>
@@ -7772,10 +7772,10 @@
         <v>1359</v>
       </c>
       <c r="D84">
+        <v>22</v>
+      </c>
+      <c r="E84">
         <v>324</v>
-      </c>
-      <c r="E84">
-        <v>22</v>
       </c>
       <c r="F84">
         <v>201101</v>
@@ -7867,10 +7867,10 @@
         <v>1380</v>
       </c>
       <c r="D85">
+        <v>12</v>
+      </c>
+      <c r="E85">
         <v>327</v>
-      </c>
-      <c r="E85">
-        <v>12</v>
       </c>
       <c r="F85">
         <v>201102</v>
@@ -7962,10 +7962,10 @@
         <v>1537</v>
       </c>
       <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86">
         <v>383</v>
-      </c>
-      <c r="E86">
-        <v>8</v>
       </c>
       <c r="F86">
         <v>201103</v>
@@ -8057,10 +8057,10 @@
         <v>1567</v>
       </c>
       <c r="D87">
+        <v>262</v>
+      </c>
+      <c r="E87">
         <v>319</v>
-      </c>
-      <c r="E87">
-        <v>262</v>
       </c>
       <c r="F87">
         <v>201104</v>
@@ -8152,10 +8152,10 @@
         <v>1518</v>
       </c>
       <c r="D88">
+        <v>177</v>
+      </c>
+      <c r="E88">
         <v>396</v>
-      </c>
-      <c r="E88">
-        <v>177</v>
       </c>
       <c r="F88">
         <v>201105</v>
@@ -8247,10 +8247,10 @@
         <v>1197</v>
       </c>
       <c r="D89">
+        <v>296</v>
+      </c>
+      <c r="E89">
         <v>367</v>
-      </c>
-      <c r="E89">
-        <v>296</v>
       </c>
       <c r="F89">
         <v>201106</v>
@@ -8342,10 +8342,10 @@
         <v>1514</v>
       </c>
       <c r="D90">
+        <v>432</v>
+      </c>
+      <c r="E90">
         <v>272</v>
-      </c>
-      <c r="E90">
-        <v>432</v>
       </c>
       <c r="F90">
         <v>201107</v>
@@ -8437,10 +8437,10 @@
         <v>1436</v>
       </c>
       <c r="D91">
+        <v>192</v>
+      </c>
+      <c r="E91">
         <v>646</v>
-      </c>
-      <c r="E91">
-        <v>192</v>
       </c>
       <c r="F91">
         <v>201108</v>
@@ -8532,10 +8532,10 @@
         <v>1670</v>
       </c>
       <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
         <v>288</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
       </c>
       <c r="F92">
         <v>201109</v>
@@ -8627,10 +8627,10 @@
         <v>1503</v>
       </c>
       <c r="D93">
+        <v>316</v>
+      </c>
+      <c r="E93">
         <v>398</v>
-      </c>
-      <c r="E93">
-        <v>316</v>
       </c>
       <c r="F93">
         <v>201110</v>
@@ -8722,10 +8722,10 @@
         <v>2012</v>
       </c>
       <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94">
         <v>495</v>
-      </c>
-      <c r="E94">
-        <v>12</v>
       </c>
       <c r="F94">
         <v>201111</v>
@@ -8817,10 +8817,10 @@
         <v>1091</v>
       </c>
       <c r="D95">
+        <v>128</v>
+      </c>
+      <c r="E95">
         <v>619</v>
-      </c>
-      <c r="E95">
-        <v>128</v>
       </c>
       <c r="F95">
         <v>201112</v>
@@ -8911,7 +8911,7 @@
       <c r="C96">
         <v>809</v>
       </c>
-      <c r="E96">
+      <c r="D96">
         <v>19</v>
       </c>
       <c r="F96">
@@ -9004,10 +9004,10 @@
         <v>1067</v>
       </c>
       <c r="D97">
+        <v>786</v>
+      </c>
+      <c r="E97">
         <v>341</v>
-      </c>
-      <c r="E97">
-        <v>786</v>
       </c>
       <c r="F97">
         <v>201202</v>
@@ -9096,10 +9096,10 @@
         <v>1506</v>
       </c>
       <c r="D98">
+        <v>407</v>
+      </c>
+      <c r="E98">
         <v>282</v>
-      </c>
-      <c r="E98">
-        <v>407</v>
       </c>
       <c r="F98">
         <v>201203</v>
@@ -9188,10 +9188,10 @@
         <v>1054</v>
       </c>
       <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
         <v>227</v>
-      </c>
-      <c r="E99">
-        <v>10</v>
       </c>
       <c r="F99">
         <v>201204</v>
@@ -9280,10 +9280,10 @@
         <v>946</v>
       </c>
       <c r="D100">
+        <v>356</v>
+      </c>
+      <c r="E100">
         <v>491</v>
-      </c>
-      <c r="E100">
-        <v>356</v>
       </c>
       <c r="F100">
         <v>201205</v>
@@ -9375,10 +9375,10 @@
         <v>1079</v>
       </c>
       <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
         <v>550</v>
-      </c>
-      <c r="E101">
-        <v>5</v>
       </c>
       <c r="F101">
         <v>201206</v>
@@ -9470,10 +9470,10 @@
         <v>1156</v>
       </c>
       <c r="D102">
+        <v>12</v>
+      </c>
+      <c r="E102">
         <v>459</v>
-      </c>
-      <c r="E102">
-        <v>12</v>
       </c>
       <c r="F102">
         <v>201207</v>
@@ -9562,10 +9562,10 @@
         <v>1226</v>
       </c>
       <c r="D103">
+        <v>161</v>
+      </c>
+      <c r="E103">
         <v>477</v>
-      </c>
-      <c r="E103">
-        <v>161</v>
       </c>
       <c r="F103">
         <v>201208</v>
@@ -9657,10 +9657,10 @@
         <v>1201</v>
       </c>
       <c r="D104">
+        <v>9</v>
+      </c>
+      <c r="E104">
         <v>680</v>
-      </c>
-      <c r="E104">
-        <v>9</v>
       </c>
       <c r="F104">
         <v>201209</v>
@@ -9752,10 +9752,10 @@
         <v>2164</v>
       </c>
       <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
         <v>817</v>
-      </c>
-      <c r="E105">
-        <v>3</v>
       </c>
       <c r="F105">
         <v>201210</v>
@@ -9847,10 +9847,10 @@
         <v>1420</v>
       </c>
       <c r="D106">
+        <v>344</v>
+      </c>
+      <c r="E106">
         <v>511</v>
-      </c>
-      <c r="E106">
-        <v>344</v>
       </c>
       <c r="F106">
         <v>201211</v>
@@ -9942,10 +9942,10 @@
         <v>876</v>
       </c>
       <c r="D107">
+        <v>192</v>
+      </c>
+      <c r="E107">
         <v>589</v>
-      </c>
-      <c r="E107">
-        <v>192</v>
       </c>
       <c r="F107">
         <v>201212</v>
@@ -10037,10 +10037,10 @@
         <v>1700</v>
       </c>
       <c r="D108">
+        <v>431</v>
+      </c>
+      <c r="E108">
         <v>468</v>
-      </c>
-      <c r="E108">
-        <v>431</v>
       </c>
       <c r="F108">
         <v>201301</v>
@@ -10129,10 +10129,10 @@
         <v>1336</v>
       </c>
       <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="E109">
         <v>438</v>
-      </c>
-      <c r="E109">
-        <v>9</v>
       </c>
       <c r="F109">
         <v>201302</v>
@@ -10224,10 +10224,10 @@
         <v>1105</v>
       </c>
       <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
         <v>399</v>
-      </c>
-      <c r="E110">
-        <v>6</v>
       </c>
       <c r="F110">
         <v>201303</v>
@@ -10319,10 +10319,10 @@
         <v>1366</v>
       </c>
       <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
         <v>575</v>
-      </c>
-      <c r="E111">
-        <v>6</v>
       </c>
       <c r="F111">
         <v>201304</v>
@@ -10414,10 +10414,10 @@
         <v>960</v>
       </c>
       <c r="D112">
+        <v>13</v>
+      </c>
+      <c r="E112">
         <v>1001</v>
-      </c>
-      <c r="E112">
-        <v>13</v>
       </c>
       <c r="F112">
         <v>201305</v>
@@ -10508,7 +10508,7 @@
       <c r="C113">
         <v>1136</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>652</v>
       </c>
       <c r="F113">
@@ -10601,10 +10601,10 @@
         <v>1552</v>
       </c>
       <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>658</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
       </c>
       <c r="F114">
         <v>201307</v>
@@ -10693,10 +10693,10 @@
         <v>1310</v>
       </c>
       <c r="D115">
+        <v>16</v>
+      </c>
+      <c r="E115">
         <v>806</v>
-      </c>
-      <c r="E115">
-        <v>16</v>
       </c>
       <c r="F115">
         <v>201308</v>
@@ -10785,10 +10785,10 @@
         <v>1412</v>
       </c>
       <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116">
         <v>852</v>
-      </c>
-      <c r="E116">
-        <v>8</v>
       </c>
       <c r="F116">
         <v>201309</v>
@@ -10877,10 +10877,10 @@
         <v>1837</v>
       </c>
       <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
         <v>1178</v>
-      </c>
-      <c r="E117">
-        <v>8</v>
       </c>
       <c r="F117">
         <v>201310</v>
@@ -10972,10 +10972,10 @@
         <v>1537</v>
       </c>
       <c r="D118">
+        <v>14</v>
+      </c>
+      <c r="E118">
         <v>1017</v>
-      </c>
-      <c r="E118">
-        <v>14</v>
       </c>
       <c r="F118">
         <v>201311</v>
@@ -11067,10 +11067,10 @@
         <v>892</v>
       </c>
       <c r="D119">
+        <v>7</v>
+      </c>
+      <c r="E119">
         <v>862</v>
-      </c>
-      <c r="E119">
-        <v>7</v>
       </c>
       <c r="F119">
         <v>201312</v>
@@ -11159,10 +11159,10 @@
         <v>1248</v>
       </c>
       <c r="D120">
+        <v>31</v>
+      </c>
+      <c r="E120">
         <v>718</v>
-      </c>
-      <c r="E120">
-        <v>31</v>
       </c>
       <c r="F120">
         <v>201401</v>
@@ -11254,10 +11254,10 @@
         <v>1421</v>
       </c>
       <c r="D121">
+        <v>238</v>
+      </c>
+      <c r="E121">
         <v>750</v>
-      </c>
-      <c r="E121">
-        <v>238</v>
       </c>
       <c r="F121">
         <v>201402</v>
@@ -11349,10 +11349,10 @@
         <v>1837</v>
       </c>
       <c r="D122">
+        <v>461</v>
+      </c>
+      <c r="E122">
         <v>510</v>
-      </c>
-      <c r="E122">
-        <v>461</v>
       </c>
       <c r="F122">
         <v>201403</v>
@@ -11444,10 +11444,10 @@
         <v>1745</v>
       </c>
       <c r="D123">
+        <v>371</v>
+      </c>
+      <c r="E123">
         <v>652</v>
-      </c>
-      <c r="E123">
-        <v>371</v>
       </c>
       <c r="F123">
         <v>201404</v>
@@ -11539,10 +11539,10 @@
         <v>1205</v>
       </c>
       <c r="D124">
+        <v>435</v>
+      </c>
+      <c r="E124">
         <v>646</v>
-      </c>
-      <c r="E124">
-        <v>435</v>
       </c>
       <c r="F124">
         <v>201405</v>
@@ -11634,10 +11634,10 @@
         <v>1640</v>
       </c>
       <c r="D125">
+        <v>480</v>
+      </c>
+      <c r="E125">
         <v>698</v>
-      </c>
-      <c r="E125">
-        <v>480</v>
       </c>
       <c r="F125">
         <v>201406</v>
@@ -11726,10 +11726,10 @@
         <v>1789</v>
       </c>
       <c r="D126">
+        <v>454</v>
+      </c>
+      <c r="E126">
         <v>1016</v>
-      </c>
-      <c r="E126">
-        <v>454</v>
       </c>
       <c r="F126">
         <v>201407</v>
@@ -11821,10 +11821,10 @@
         <v>1091</v>
       </c>
       <c r="D127">
+        <v>536</v>
+      </c>
+      <c r="E127">
         <v>1044</v>
-      </c>
-      <c r="E127">
-        <v>536</v>
       </c>
       <c r="F127">
         <v>201408</v>
@@ -11916,10 +11916,10 @@
         <v>1742</v>
       </c>
       <c r="D128">
+        <v>523</v>
+      </c>
+      <c r="E128">
         <v>767</v>
-      </c>
-      <c r="E128">
-        <v>523</v>
       </c>
       <c r="F128">
         <v>201409</v>
@@ -12011,10 +12011,10 @@
         <v>2006</v>
       </c>
       <c r="D129">
+        <v>313</v>
+      </c>
+      <c r="E129">
         <v>996</v>
-      </c>
-      <c r="E129">
-        <v>313</v>
       </c>
       <c r="F129">
         <v>201410</v>
@@ -12106,10 +12106,10 @@
         <v>1604</v>
       </c>
       <c r="D130">
+        <v>287</v>
+      </c>
+      <c r="E130">
         <v>1093</v>
-      </c>
-      <c r="E130">
-        <v>287</v>
       </c>
       <c r="F130">
         <v>201411</v>
@@ -12201,10 +12201,10 @@
         <v>1109</v>
       </c>
       <c r="D131">
+        <v>264</v>
+      </c>
+      <c r="E131">
         <v>501</v>
-      </c>
-      <c r="E131">
-        <v>264</v>
       </c>
       <c r="F131">
         <v>201412</v>
@@ -12296,10 +12296,10 @@
         <v>1142</v>
       </c>
       <c r="D132">
+        <v>211</v>
+      </c>
+      <c r="E132">
         <v>651</v>
-      </c>
-      <c r="E132">
-        <v>211</v>
       </c>
       <c r="F132">
         <v>201501</v>
@@ -12391,10 +12391,10 @@
         <v>913</v>
       </c>
       <c r="D133">
+        <v>457</v>
+      </c>
+      <c r="E133">
         <v>511</v>
-      </c>
-      <c r="E133">
-        <v>457</v>
       </c>
       <c r="F133">
         <v>201502</v>
@@ -12486,10 +12486,10 @@
         <v>1323</v>
       </c>
       <c r="D134">
+        <v>277</v>
+      </c>
+      <c r="E134">
         <v>331</v>
-      </c>
-      <c r="E134">
-        <v>277</v>
       </c>
       <c r="F134">
         <v>201503</v>
@@ -12581,10 +12581,10 @@
         <v>1272</v>
       </c>
       <c r="D135">
+        <v>352</v>
+      </c>
+      <c r="E135">
         <v>652</v>
-      </c>
-      <c r="E135">
-        <v>352</v>
       </c>
       <c r="F135">
         <v>201504</v>
@@ -12676,10 +12676,10 @@
         <v>1222</v>
       </c>
       <c r="D136">
+        <v>331</v>
+      </c>
+      <c r="E136">
         <v>687</v>
-      </c>
-      <c r="E136">
-        <v>331</v>
       </c>
       <c r="F136">
         <v>201505</v>
@@ -12771,10 +12771,10 @@
         <v>1247</v>
       </c>
       <c r="D137">
+        <v>462</v>
+      </c>
+      <c r="E137">
         <v>784</v>
-      </c>
-      <c r="E137">
-        <v>462</v>
       </c>
       <c r="F137">
         <v>201506</v>
@@ -12866,10 +12866,10 @@
         <v>1855</v>
       </c>
       <c r="D138">
+        <v>122</v>
+      </c>
+      <c r="E138">
         <v>777</v>
-      </c>
-      <c r="E138">
-        <v>122</v>
       </c>
       <c r="F138">
         <v>201507</v>
@@ -12961,10 +12961,10 @@
         <v>1589</v>
       </c>
       <c r="D139">
+        <v>458</v>
+      </c>
+      <c r="E139">
         <v>578</v>
-      </c>
-      <c r="E139">
-        <v>458</v>
       </c>
       <c r="F139">
         <v>201508</v>
@@ -13056,10 +13056,10 @@
         <v>1744</v>
       </c>
       <c r="D140">
+        <v>198</v>
+      </c>
+      <c r="E140">
         <v>1092</v>
-      </c>
-      <c r="E140">
-        <v>198</v>
       </c>
       <c r="F140">
         <v>201509</v>
@@ -13151,10 +13151,10 @@
         <v>1636</v>
       </c>
       <c r="D141">
+        <v>302</v>
+      </c>
+      <c r="E141">
         <v>793</v>
-      </c>
-      <c r="E141">
-        <v>302</v>
       </c>
       <c r="F141">
         <v>201510</v>
@@ -13246,10 +13246,10 @@
         <v>1657</v>
       </c>
       <c r="D142">
+        <v>11</v>
+      </c>
+      <c r="E142">
         <v>636</v>
-      </c>
-      <c r="E142">
-        <v>11</v>
       </c>
       <c r="F142">
         <v>201511</v>
@@ -13341,10 +13341,10 @@
         <v>897</v>
       </c>
       <c r="D143">
+        <v>283</v>
+      </c>
+      <c r="E143">
         <v>461</v>
-      </c>
-      <c r="E143">
-        <v>283</v>
       </c>
       <c r="F143">
         <v>201512</v>
@@ -13436,10 +13436,10 @@
         <v>859</v>
       </c>
       <c r="D144">
+        <v>83</v>
+      </c>
+      <c r="E144">
         <v>716</v>
-      </c>
-      <c r="E144">
-        <v>83</v>
       </c>
       <c r="F144">
         <v>201601</v>
@@ -13531,10 +13531,10 @@
         <v>1013</v>
       </c>
       <c r="D145">
+        <v>405</v>
+      </c>
+      <c r="E145">
         <v>680</v>
-      </c>
-      <c r="E145">
-        <v>405</v>
       </c>
       <c r="F145">
         <v>201602</v>
@@ -13626,10 +13626,10 @@
         <v>1621</v>
       </c>
       <c r="D146">
+        <v>347</v>
+      </c>
+      <c r="E146">
         <v>555</v>
-      </c>
-      <c r="E146">
-        <v>347</v>
       </c>
       <c r="F146">
         <v>201603</v>
@@ -13721,10 +13721,10 @@
         <v>1572</v>
       </c>
       <c r="D147">
+        <v>329</v>
+      </c>
+      <c r="E147">
         <v>757</v>
-      </c>
-      <c r="E147">
-        <v>329</v>
       </c>
       <c r="F147">
         <v>201604</v>
@@ -13816,10 +13816,10 @@
         <v>1452</v>
       </c>
       <c r="D148">
+        <v>364</v>
+      </c>
+      <c r="E148">
         <v>670</v>
-      </c>
-      <c r="E148">
-        <v>364</v>
       </c>
       <c r="F148">
         <v>201605</v>
@@ -13911,10 +13911,10 @@
         <v>1717</v>
       </c>
       <c r="D149">
+        <v>254</v>
+      </c>
+      <c r="E149">
         <v>690</v>
-      </c>
-      <c r="E149">
-        <v>254</v>
       </c>
       <c r="F149">
         <v>201606</v>
@@ -14006,10 +14006,10 @@
         <v>1610</v>
       </c>
       <c r="D150">
+        <v>311</v>
+      </c>
+      <c r="E150">
         <v>862</v>
-      </c>
-      <c r="E150">
-        <v>311</v>
       </c>
       <c r="F150">
         <v>201607</v>
@@ -14101,10 +14101,10 @@
         <v>1726</v>
       </c>
       <c r="D151">
+        <v>370</v>
+      </c>
+      <c r="E151">
         <v>681</v>
-      </c>
-      <c r="E151">
-        <v>370</v>
       </c>
       <c r="F151">
         <v>201608</v>
@@ -14196,10 +14196,10 @@
         <v>1986</v>
       </c>
       <c r="D152">
+        <v>342</v>
+      </c>
+      <c r="E152">
         <v>707</v>
-      </c>
-      <c r="E152">
-        <v>342</v>
       </c>
       <c r="F152">
         <v>201609</v>
@@ -14291,10 +14291,10 @@
         <v>1789</v>
       </c>
       <c r="D153">
+        <v>320</v>
+      </c>
+      <c r="E153">
         <v>730</v>
-      </c>
-      <c r="E153">
-        <v>320</v>
       </c>
       <c r="F153">
         <v>201610</v>
@@ -14386,10 +14386,10 @@
         <v>1921</v>
       </c>
       <c r="D154">
+        <v>267</v>
+      </c>
+      <c r="E154">
         <v>809</v>
-      </c>
-      <c r="E154">
-        <v>267</v>
       </c>
       <c r="F154">
         <v>201611</v>
@@ -14481,10 +14481,10 @@
         <v>972</v>
       </c>
       <c r="D155">
+        <v>317</v>
+      </c>
+      <c r="E155">
         <v>539</v>
-      </c>
-      <c r="E155">
-        <v>317</v>
       </c>
       <c r="F155">
         <v>201612</v>
@@ -14576,10 +14576,10 @@
         <v>1008</v>
       </c>
       <c r="D156">
+        <v>205</v>
+      </c>
+      <c r="E156">
         <v>408</v>
-      </c>
-      <c r="E156">
-        <v>205</v>
       </c>
       <c r="F156">
         <v>201701</v>
@@ -14671,10 +14671,10 @@
         <v>815</v>
       </c>
       <c r="D157">
+        <v>200</v>
+      </c>
+      <c r="E157">
         <v>497</v>
-      </c>
-      <c r="E157">
-        <v>200</v>
       </c>
       <c r="F157">
         <v>201702</v>
@@ -14766,10 +14766,10 @@
         <v>1176</v>
       </c>
       <c r="D158">
+        <v>511</v>
+      </c>
+      <c r="E158">
         <v>593</v>
-      </c>
-      <c r="E158">
-        <v>511</v>
       </c>
       <c r="F158">
         <v>201703</v>
@@ -14861,10 +14861,10 @@
         <v>924</v>
       </c>
       <c r="D159">
+        <v>396</v>
+      </c>
+      <c r="E159">
         <v>390</v>
-      </c>
-      <c r="E159">
-        <v>396</v>
       </c>
       <c r="F159">
         <v>201704</v>
@@ -14956,10 +14956,10 @@
         <v>185</v>
       </c>
       <c r="D160">
+        <v>427</v>
+      </c>
+      <c r="E160">
         <v>409</v>
-      </c>
-      <c r="E160">
-        <v>427</v>
       </c>
       <c r="F160">
         <v>201705</v>
@@ -15051,10 +15051,10 @@
         <v>2507</v>
       </c>
       <c r="D161">
+        <v>537</v>
+      </c>
+      <c r="E161">
         <v>322</v>
-      </c>
-      <c r="E161">
-        <v>537</v>
       </c>
       <c r="F161">
         <v>201706</v>
@@ -15146,10 +15146,10 @@
         <v>1170</v>
       </c>
       <c r="D162">
+        <v>339</v>
+      </c>
+      <c r="E162">
         <v>574</v>
-      </c>
-      <c r="E162">
-        <v>339</v>
       </c>
       <c r="F162">
         <v>201707</v>
@@ -15241,10 +15241,10 @@
         <v>1328</v>
       </c>
       <c r="D163">
+        <v>221</v>
+      </c>
+      <c r="E163">
         <v>813</v>
-      </c>
-      <c r="E163">
-        <v>221</v>
       </c>
       <c r="F163">
         <v>201708</v>
@@ -15336,10 +15336,10 @@
         <v>1446</v>
       </c>
       <c r="D164">
+        <v>301</v>
+      </c>
+      <c r="E164">
         <v>560</v>
-      </c>
-      <c r="E164">
-        <v>301</v>
       </c>
       <c r="F164">
         <v>201709</v>
@@ -15431,10 +15431,10 @@
         <v>1478</v>
       </c>
       <c r="D165">
+        <v>74</v>
+      </c>
+      <c r="E165">
         <v>505</v>
-      </c>
-      <c r="E165">
-        <v>74</v>
       </c>
       <c r="F165">
         <v>201710</v>
@@ -15526,10 +15526,10 @@
         <v>1355</v>
       </c>
       <c r="D166">
+        <v>791</v>
+      </c>
+      <c r="E166">
         <v>666</v>
-      </c>
-      <c r="E166">
-        <v>791</v>
       </c>
       <c r="F166">
         <v>201711</v>
@@ -15621,10 +15621,10 @@
         <v>808</v>
       </c>
       <c r="D167">
+        <v>475</v>
+      </c>
+      <c r="E167">
         <v>698</v>
-      </c>
-      <c r="E167">
-        <v>475</v>
       </c>
       <c r="F167">
         <v>201712</v>
@@ -15713,10 +15713,10 @@
         <v>1236</v>
       </c>
       <c r="D168">
+        <v>305</v>
+      </c>
+      <c r="E168">
         <v>399</v>
-      </c>
-      <c r="E168">
-        <v>305</v>
       </c>
       <c r="F168">
         <v>201801</v>
@@ -15805,10 +15805,10 @@
         <v>1044</v>
       </c>
       <c r="D169">
+        <v>204</v>
+      </c>
+      <c r="E169">
         <v>548</v>
-      </c>
-      <c r="E169">
-        <v>204</v>
       </c>
       <c r="F169">
         <v>201802</v>
@@ -15894,10 +15894,10 @@
         <v>1256</v>
       </c>
       <c r="D170">
+        <v>223</v>
+      </c>
+      <c r="E170">
         <v>359</v>
-      </c>
-      <c r="E170">
-        <v>223</v>
       </c>
       <c r="F170">
         <v>201803</v>
@@ -15980,10 +15980,10 @@
         <v>1203</v>
       </c>
       <c r="D171">
+        <v>529</v>
+      </c>
+      <c r="E171">
         <v>395</v>
-      </c>
-      <c r="E171">
-        <v>529</v>
       </c>
       <c r="F171">
         <v>201804</v>
